--- a/HW2/HW2-2.xlsx
+++ b/HW2/HW2-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B3EF50-9FDE-174C-A930-3030B30A8F22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3E7D0-461E-A441-B9F9-A68B6F489150}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="460" windowWidth="23680" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="117" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H3" sqref="H3:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -647,26 +647,26 @@
       </c>
       <c r="D3" s="1">
         <f>C21*C24+D24*D21+E21*E24</f>
-        <v>12.968029499999998</v>
+        <v>11.603022764936451</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
         <f>F24*F21</f>
-        <v>0.239116</v>
+        <v>0.37505216143453352</v>
       </c>
       <c r="G3" s="1">
         <f>F24</f>
-        <v>5.9779</v>
+        <v>9.3763040358633383</v>
       </c>
       <c r="H3" s="1">
-        <f>D3+E3+G3-F3</f>
-        <v>18.706813499999999</v>
+        <f>D3+E3+G3+F3</f>
+        <v>21.354378962234325</v>
       </c>
       <c r="I3" s="1">
         <f>H3-C3</f>
-        <v>6.7068134999999991</v>
+        <v>9.3543789622343247</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -678,26 +678,26 @@
       </c>
       <c r="D4" s="1">
         <f>C21*C24+D24*D21+E21*E24</f>
-        <v>12.968029499999998</v>
+        <v>11.603022764936451</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
         <f>$F$21*I3</f>
-        <v>0.26827253999999995</v>
+        <v>0.37417515848937299</v>
       </c>
       <c r="G4" s="1">
         <f>I3</f>
-        <v>6.7068134999999991</v>
+        <v>9.3543789622343247</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H16" si="0">D4+E4+G4-F4</f>
-        <v>19.406570459999994</v>
+        <f t="shared" ref="H4:H16" si="0">D4+E4+G4+F4</f>
+        <v>21.331576885660148</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I16" si="1">H4-C4</f>
-        <v>5.406570459999994</v>
+        <v>7.331576885660148</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -709,26 +709,26 @@
       </c>
       <c r="D5" s="1">
         <f>C21*C24+D24*D21+E21*E24</f>
-        <v>12.968029499999998</v>
+        <v>11.603022764936451</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F16" si="2">$F$21*I4</f>
-        <v>0.21626281839999975</v>
+        <v>0.29326307542640595</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G16" si="3">I4</f>
-        <v>5.406570459999994</v>
+        <v>7.331576885660148</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>18.15833714159999</v>
+        <v>19.227862726023005</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>3.1583371415999899</v>
+        <v>4.2278627260230053</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -740,26 +740,26 @@
       </c>
       <c r="D6" s="1">
         <f>C21*C24+D24*D21+E21*E24</f>
-        <v>12.968029499999998</v>
+        <v>11.603022764936451</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>0.1263334856639996</v>
+        <v>0.16911450904092021</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>3.1583371415999899</v>
+        <v>4.2278627260230053</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>16.000033155935988</v>
+        <v>16.000000000000377</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>3.3155935987849716E-5</v>
+        <v>3.765876499528531E-13</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -771,27 +771,27 @@
       </c>
       <c r="D7" s="1">
         <f>C21*C24+D24*D21+E21*E24</f>
-        <v>12.968029499999998</v>
+        <v>11.603022764936451</v>
       </c>
       <c r="E7" s="1">
         <f>C24*C23</f>
-        <v>89.385999999999996</v>
+        <v>73.694798104241613</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>1.3262374395139888E-6</v>
+        <v>1.5063505998114125E-14</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>3.3155935987849716E-5</v>
+        <v>3.765876499528531E-13</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>102.35406132969855</v>
+        <v>85.297820869178466</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>84.354061329698553</v>
+        <v>67.297820869178466</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -803,26 +803,26 @@
       </c>
       <c r="D8" s="1">
         <f>D24*D21+E21*E24</f>
-        <v>7.6048694999999995</v>
+        <v>7.1813348786819544</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>3.3741624531879424</v>
+        <v>2.6919128347671388</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>84.354061329698553</v>
+        <v>67.297820869178466</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>88.584768376510596</v>
+        <v>77.171068582627555</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>68.584768376510596</v>
+        <v>57.171068582627555</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -834,26 +834,26 @@
       </c>
       <c r="D9" s="1">
         <f>D24*D21+E21*E24</f>
-        <v>7.6048694999999995</v>
+        <v>7.1813348786819544</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>2.7433907350604239</v>
+        <v>2.2868427433051024</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>68.584768376510596</v>
+        <v>57.171068582627555</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>73.446247141450172</v>
+        <v>66.639246204614608</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>52.446247141450172</v>
+        <v>45.639246204614608</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -865,26 +865,26 @@
       </c>
       <c r="D10" s="1">
         <f>D24*D21+E21*E24</f>
-        <v>7.6048694999999995</v>
+        <v>7.1813348786819544</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>2.097849885658007</v>
+        <v>1.8255698481845843</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
-        <v>52.446247141450172</v>
+        <v>45.639246204614608</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>57.953266755792164</v>
+        <v>54.646150931481145</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>35.953266755792164</v>
+        <v>32.646150931481145</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -896,26 +896,26 @@
       </c>
       <c r="D11" s="1">
         <f>D24*D21+E21*E24</f>
-        <v>7.6048694999999995</v>
+        <v>7.1813348786819544</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>1.4381306702316865</v>
+        <v>1.3058460372592458</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>35.953266755792164</v>
+        <v>32.646150931481145</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>42.120005585560477</v>
+        <v>41.13333184742234</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>18.120005585560477</v>
+        <v>17.13333184742234</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -927,26 +927,26 @@
       </c>
       <c r="D12" s="1">
         <f>D24*D21+E21*E24</f>
-        <v>7.6048694999999995</v>
+        <v>7.1813348786819544</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>0.72480022342241912</v>
+        <v>0.68533327389689358</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="3"/>
-        <v>18.120005585560477</v>
+        <v>17.13333184742234</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>25.000074862138057</v>
+        <v>25.00000000000119</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>7.4862138056630556E-5</v>
+        <v>1.1901590823981678E-12</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -958,27 +958,27 @@
       </c>
       <c r="D13" s="1">
         <f>D24*D21+E21*E24</f>
-        <v>7.6048694999999995</v>
+        <v>7.1813348786819544</v>
       </c>
       <c r="E13" s="1">
         <f>D24*D23</f>
-        <v>83.724299999999999</v>
+        <v>77.208372015503201</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>2.9944855222652222E-6</v>
+        <v>4.7606363295926714E-14</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="3"/>
-        <v>7.4862138056630556E-5</v>
+        <v>1.1901590823981678E-12</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>91.329241367652543</v>
+        <v>84.389706894186389</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>61.329241367652543</v>
+        <v>54.389706894186389</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -990,26 +990,26 @@
       </c>
       <c r="D14" s="1">
         <f>E21*E24</f>
-        <v>2.1627899999999998</v>
+        <v>2.1627906976742466</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>2.4531696547061017</v>
+        <v>2.1755882757674558</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="3"/>
-        <v>61.329241367652543</v>
+        <v>54.389706894186389</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>61.038861712946442</v>
+        <v>58.728085867628089</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>30.038861712946442</v>
+        <v>27.728085867628089</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -1021,26 +1021,26 @@
       </c>
       <c r="D15" s="1">
         <f>E21*E24</f>
-        <v>2.1627899999999998</v>
+        <v>2.1627906976742466</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>1.2015544685178576</v>
+        <v>1.1091234347051235</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="3"/>
-        <v>30.038861712946442</v>
+        <v>27.728085867628089</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>31.000097244428584</v>
+        <v>31.000000000007457</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>9.7244428584275511E-5</v>
+        <v>7.4571460118022515E-12</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -1052,27 +1052,27 @@
       </c>
       <c r="D16" s="1">
         <f>E21*E24</f>
-        <v>2.1627899999999998</v>
+        <v>2.1627906976742466</v>
       </c>
       <c r="E16" s="1">
         <f>E24*E23</f>
-        <v>28.837199999999999</v>
+        <v>28.837209302323288</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>3.8897771433710201E-6</v>
+        <v>2.9828584047209009E-13</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="3"/>
-        <v>9.7244428584275511E-5</v>
+        <v>7.4571460118022515E-12</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>31.000083354651441</v>
+        <v>31.00000000000529</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>8.3354651440714633E-5</v>
+        <v>5.2899906677339459E-12</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -1162,16 +1162,16 @@
         <v>26</v>
       </c>
       <c r="C24" s="5">
-        <v>89.385999999999996</v>
+        <v>73.694798104241613</v>
       </c>
       <c r="D24" s="5">
-        <v>83.724299999999999</v>
+        <v>77.208372015503201</v>
       </c>
       <c r="E24" s="5">
-        <v>28.837199999999999</v>
+        <v>28.837209302323288</v>
       </c>
       <c r="F24" s="6">
-        <v>5.9779</v>
+        <v>9.3763040358633383</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C26" s="3">
         <f>C20*C24+D20*D24+E20*E24+F20*F24</f>
-        <v>205.06781099999998</v>
+        <v>186.7683968004977</v>
       </c>
     </row>
   </sheetData>
